--- a/GitGud_Backlog.xlsx
+++ b/GitGud_Backlog.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stebateus\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stebateus\Documents\GitHub\GitGud-Dokumentit\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -87,7 +87,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,8 +111,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -122,6 +130,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -138,14 +152,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normaali" xfId="0" builtinId="0"/>
@@ -463,7 +479,7 @@
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="B10" sqref="B10:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -471,29 +487,31 @@
     <col min="1" max="1" width="13.85546875" customWidth="1"/>
     <col min="2" max="2" width="9.5703125" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="6" t="s">
         <v>10</v>
       </c>
+      <c r="E2" s="5"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -555,14 +573,15 @@
       <c r="G6" s="2"/>
     </row>
     <row r="8" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
-      <c r="D8" t="s">
+      <c r="D8" s="6" t="s">
         <v>11</v>
       </c>
+      <c r="E8" s="5"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -611,14 +630,15 @@
       <c r="G12" s="2"/>
     </row>
     <row r="14" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
-      <c r="D14" t="s">
+      <c r="D14" s="6" t="s">
         <v>14</v>
       </c>
+      <c r="E14" s="5"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -665,14 +685,15 @@
       <c r="G18" s="2"/>
     </row>
     <row r="20" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
-      <c r="D20" t="s">
+      <c r="D20" s="6" t="s">
         <v>14</v>
       </c>
+      <c r="E20" s="5"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -719,14 +740,15 @@
       <c r="G24" s="2"/>
     </row>
     <row r="26" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
-      <c r="D26" t="s">
+      <c r="D26" s="6" t="s">
         <v>14</v>
       </c>
+      <c r="E26" s="5"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -774,14 +796,7 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="B30:G30"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B6:G6"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B1:G1"/>
@@ -798,7 +813,14 @@
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="B4:G4"/>
     <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B28:G28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/GitGud_Backlog.xlsx
+++ b/GitGud_Backlog.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="21">
   <si>
     <t>Sprintti 1</t>
   </si>
@@ -81,6 +81,12 @@
   </si>
   <si>
     <t>Sprintti 5</t>
+  </si>
+  <si>
+    <t>20.11-22.11.2017</t>
+  </si>
+  <si>
+    <t>27.11-29.11.2017</t>
   </si>
 </sst>
 </file>
@@ -140,7 +146,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -148,20 +154,213 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normaali" xfId="0" builtinId="0"/>
@@ -479,7 +678,7 @@
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:G10"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -491,316 +690,322 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="8"/>
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="C2" s="14"/>
+      <c r="D2" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="5"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="15"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="18"/>
       <c r="H3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="18"/>
       <c r="H4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="18"/>
       <c r="H5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="21"/>
     </row>
     <row r="8" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="6" t="s">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="5"/>
+      <c r="E8" s="23"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="26"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="18"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="18"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="21"/>
     </row>
     <row r="14" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="6" t="s">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="5"/>
+      <c r="E14" s="23"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="26"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="18"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="18"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="21"/>
     </row>
     <row r="20" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E20" s="5"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="23"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="A21" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="26"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="A22" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="18"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="A23" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="18"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="A24" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="21"/>
     </row>
     <row r="26" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E26" s="5"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" s="23"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="A27" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="26"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="A28" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="18"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="A29" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="18"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="A30" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B28:G28"/>
     <mergeCell ref="B21:G21"/>
     <mergeCell ref="B9:G9"/>
     <mergeCell ref="B10:G10"/>
@@ -810,17 +1015,14 @@
     <mergeCell ref="B16:G16"/>
     <mergeCell ref="B17:G17"/>
     <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B20:C20"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="B4:G4"/>
     <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="B30:G30"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B28:G28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/GitGud_Backlog.xlsx
+++ b/GitGud_Backlog.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="19">
   <si>
     <t>Sprintti 1</t>
   </si>
@@ -75,12 +75,6 @@
   </si>
   <si>
     <t>Kyselyn kysymykset voi hakea JSON:lla</t>
-  </si>
-  <si>
-    <t>Sprintti 4</t>
-  </si>
-  <si>
-    <t>Sprintti 5</t>
   </si>
   <si>
     <t>20.11-22.11.2017</t>
@@ -331,9 +325,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -343,24 +355,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normaali" xfId="0" builtinId="0"/>
@@ -678,7 +672,7 @@
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="B11" sqref="B11:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -690,322 +684,322 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="8"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="26"/>
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="4" t="s">
+      <c r="C2" s="10"/>
+      <c r="D2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="15"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="11"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="18"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="16"/>
       <c r="H3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="18"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="16"/>
       <c r="H4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="18"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="16"/>
       <c r="H5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="21"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="19"/>
     </row>
     <row r="8" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="22" t="s">
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="23"/>
+      <c r="E8" s="13"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="26"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="23"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="16"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="18"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="16"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="16"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="18"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="16"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="19"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="21"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="19"/>
     </row>
     <row r="14" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="23"/>
+      <c r="E14" s="13"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="24"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="26"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="23"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="16"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="18"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="16"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="16"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="18"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="16"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="19"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="21"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="19"/>
     </row>
     <row r="20" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="E20" s="23"/>
+      <c r="E20" s="13"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="24"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="26"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="23"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B22" s="16"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="18"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="16"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B23" s="16"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="18"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="16"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B24" s="19"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="21"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="19"/>
     </row>
     <row r="26" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E26" s="23"/>
+      <c r="E26" s="13"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B27" s="24"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="26"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="23"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="11" t="s">
+      <c r="A28" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B28" s="16"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="18"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="16"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="11" t="s">
+      <c r="A29" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B29" s="16"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="18"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="16"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="12" t="s">
+      <c r="A30" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B30" s="19"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="21"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="B30:G30"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
     <mergeCell ref="B21:G21"/>
     <mergeCell ref="B9:G9"/>
     <mergeCell ref="B10:G10"/>
@@ -1015,14 +1009,14 @@
     <mergeCell ref="B16:G16"/>
     <mergeCell ref="B17:G17"/>
     <mergeCell ref="B18:G18"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B28:G28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/GitGud_Backlog.xlsx
+++ b/GitGud_Backlog.xlsx
@@ -336,16 +336,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -355,6 +349,12 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normaali" xfId="0" builtinId="0"/>
@@ -672,7 +672,7 @@
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:G11"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -684,14 +684,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="26"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="20"/>
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
@@ -713,14 +713,14 @@
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="16"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="23"/>
       <c r="H3" t="s">
         <v>12</v>
       </c>
@@ -729,14 +729,14 @@
       <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="16"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="23"/>
       <c r="H4" t="s">
         <v>12</v>
       </c>
@@ -745,14 +745,14 @@
       <c r="A5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="16"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="23"/>
       <c r="H5" t="s">
         <v>13</v>
       </c>
@@ -761,19 +761,19 @@
       <c r="A6" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="19"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="16"/>
     </row>
     <row r="8" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
       <c r="D8" s="12" t="s">
         <v>11</v>
       </c>
@@ -783,54 +783,54 @@
       <c r="A9" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="23"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="26"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="16"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="23"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="16"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="23"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="19"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="16"/>
     </row>
     <row r="14" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
       <c r="D14" s="12" t="s">
         <v>14</v>
       </c>
@@ -840,52 +840,52 @@
       <c r="A15" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="21"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="23"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="26"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="16"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="23"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="16"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="23"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="17"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="19"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="16"/>
     </row>
     <row r="20" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
       <c r="D20" s="12" t="s">
         <v>17</v>
       </c>
@@ -895,52 +895,52 @@
       <c r="A21" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="21"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="23"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="26"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="16"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="23"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B23" s="14"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="16"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="23"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B24" s="17"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="19"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="16"/>
     </row>
     <row r="26" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="20"/>
-      <c r="C26" s="20"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
       <c r="D26" s="12" t="s">
         <v>18</v>
       </c>
@@ -950,56 +950,56 @@
       <c r="A27" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B27" s="21"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="23"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="26"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B28" s="14"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="16"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="23"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="16"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="23"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B30" s="17"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="19"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B28:G28"/>
     <mergeCell ref="B21:G21"/>
     <mergeCell ref="B9:G9"/>
     <mergeCell ref="B10:G10"/>
@@ -1009,14 +1009,14 @@
     <mergeCell ref="B16:G16"/>
     <mergeCell ref="B17:G17"/>
     <mergeCell ref="B18:G18"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="B30:G30"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/GitGud_Backlog.xlsx
+++ b/GitGud_Backlog.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="20">
   <si>
     <t>Sprintti 1</t>
   </si>
@@ -81,6 +81,9 @@
   </si>
   <si>
     <t>27.11-29.11.2017</t>
+  </si>
+  <si>
+    <t>Vastausten tallentaminen</t>
   </si>
 </sst>
 </file>
@@ -336,10 +339,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -349,12 +358,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normaali" xfId="0" builtinId="0"/>
@@ -672,7 +675,7 @@
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -684,14 +687,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="20"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="26"/>
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
@@ -713,14 +716,14 @@
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="23"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="16"/>
       <c r="H3" t="s">
         <v>12</v>
       </c>
@@ -729,14 +732,14 @@
       <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="23"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="16"/>
       <c r="H4" t="s">
         <v>12</v>
       </c>
@@ -745,14 +748,14 @@
       <c r="A5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="23"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="16"/>
       <c r="H5" t="s">
         <v>13</v>
       </c>
@@ -761,19 +764,19 @@
       <c r="A6" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="16"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="19"/>
     </row>
     <row r="8" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
       <c r="D8" s="12" t="s">
         <v>11</v>
       </c>
@@ -783,54 +786,54 @@
       <c r="A9" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="26"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="23"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="21"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="23"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="16"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="23"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="16"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="16"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="19"/>
     </row>
     <row r="14" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
       <c r="D14" s="12" t="s">
         <v>14</v>
       </c>
@@ -840,52 +843,54 @@
       <c r="A15" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="24"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="26"/>
+      <c r="B15" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="23"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="21"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="23"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="16"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="21"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="23"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="16"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="16"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="19"/>
     </row>
     <row r="20" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
       <c r="D20" s="12" t="s">
         <v>17</v>
       </c>
@@ -895,52 +900,54 @@
       <c r="A21" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="24"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="26"/>
+      <c r="B21" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="23"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B22" s="21"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="23"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="16"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B23" s="21"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="23"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="16"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B24" s="14"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="16"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="19"/>
     </row>
     <row r="26" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
       <c r="D26" s="12" t="s">
         <v>18</v>
       </c>
@@ -950,56 +957,58 @@
       <c r="A27" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B27" s="24"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="26"/>
+      <c r="B27" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="23"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B28" s="21"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="23"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="16"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="23"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="16"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B30" s="14"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="16"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="B30:G30"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
     <mergeCell ref="B21:G21"/>
     <mergeCell ref="B9:G9"/>
     <mergeCell ref="B10:G10"/>
@@ -1009,14 +1018,14 @@
     <mergeCell ref="B16:G16"/>
     <mergeCell ref="B17:G17"/>
     <mergeCell ref="B18:G18"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B28:G28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/GitGud_Backlog.xlsx
+++ b/GitGud_Backlog.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20640" windowHeight="11385" xr2:uid="{B92C084E-AD88-4A01-83B7-EC0CBE0B71E1}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11310" xr2:uid="{B92C084E-AD88-4A01-83B7-EC0CBE0B71E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Taul1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="24">
   <si>
     <t>Sprintti 1</t>
   </si>
@@ -84,6 +84,18 @@
   </si>
   <si>
     <t>Vastausten tallentaminen</t>
+  </si>
+  <si>
+    <t>Harjoitus sprintti</t>
+  </si>
+  <si>
+    <t>Statistiikan tuottaminen</t>
+  </si>
+  <si>
+    <t>monivalintaluokka valmiiksi</t>
+  </si>
+  <si>
+    <t>monivalintaluokan valmiiksi</t>
   </si>
 </sst>
 </file>
@@ -324,7 +336,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -339,16 +351,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -358,6 +365,13 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normaali" xfId="0" builtinId="0"/>
@@ -672,34 +686,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA75AD9A-C221-4713-99E3-7EA3F854166B}">
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35:G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.5703125" customWidth="1"/>
     <col min="2" max="2" width="9.5703125" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
     <col min="8" max="8" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="26"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="21"/>
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>7</v>
@@ -716,14 +731,14 @@
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="16"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="24"/>
       <c r="H3" t="s">
         <v>12</v>
       </c>
@@ -732,14 +747,14 @@
       <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="16"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="24"/>
       <c r="H4" t="s">
         <v>12</v>
       </c>
@@ -748,14 +763,14 @@
       <c r="A5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="16"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="24"/>
       <c r="H5" t="s">
         <v>13</v>
       </c>
@@ -764,19 +779,19 @@
       <c r="A6" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="19"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="17"/>
     </row>
     <row r="8" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
+        <v>0</v>
+      </c>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
       <c r="D8" s="12" t="s">
         <v>11</v>
       </c>
@@ -786,54 +801,54 @@
       <c r="A9" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="23"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="27"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="16"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="24"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="16"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="24"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="19"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="17"/>
     </row>
     <row r="14" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
+        <v>0</v>
+      </c>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
       <c r="D14" s="12" t="s">
         <v>14</v>
       </c>
@@ -843,54 +858,54 @@
       <c r="A15" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="23"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="27"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="16"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="24"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="16"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="24"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="17"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="19"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="17"/>
     </row>
     <row r="20" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
+        <v>5</v>
+      </c>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
       <c r="D20" s="12" t="s">
         <v>17</v>
       </c>
@@ -900,54 +915,54 @@
       <c r="A21" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="23"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="27"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="16"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="24"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B23" s="14"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="16"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="24"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B24" s="17"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="19"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="17"/>
     </row>
     <row r="26" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B26" s="20"/>
-      <c r="C26" s="20"/>
+        <v>5</v>
+      </c>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
       <c r="D26" s="12" t="s">
         <v>18</v>
       </c>
@@ -957,58 +972,190 @@
       <c r="A27" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B27" s="21" t="s">
+      <c r="B27" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="23"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="27"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B28" s="14"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="16"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="24"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="16"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="24"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B30" s="17"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="19"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="17"/>
+    </row>
+    <row r="32" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="28">
+        <v>43073</v>
+      </c>
+      <c r="E32" s="13"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="27"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B34" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="24"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B35" s="22"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="24"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" s="15"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="17"/>
+    </row>
+    <row r="38" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38" s="18"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="28">
+        <v>43080</v>
+      </c>
+      <c r="E38" s="13"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B39" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C39" s="26"/>
+      <c r="D39" s="26"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="26"/>
+      <c r="G39" s="27"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B40" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C40" s="23"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="23"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="24"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B41" s="22"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="23"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="24"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" s="15"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B5:G5"/>
+  <mergeCells count="35">
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="B41:G41"/>
+    <mergeCell ref="B42:G42"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="B36:G36"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B28:G28"/>
     <mergeCell ref="B21:G21"/>
     <mergeCell ref="B9:G9"/>
     <mergeCell ref="B10:G10"/>
@@ -1018,14 +1165,14 @@
     <mergeCell ref="B16:G16"/>
     <mergeCell ref="B17:G17"/>
     <mergeCell ref="B18:G18"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="B30:G30"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
